--- a/data-raw/fsaArcPlc/input_data/fsaArcIcPrice/ARC_IC_2024.xlsx
+++ b/data-raw/fsaArcPlc/input_data/fsaArcIcPrice/ARC_IC_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\EPAS\2014FBIMP\ARC_PLC\Webpage Posting\2025-0110\Program Year 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\EPAS\2014FBIMP\ARC_PLC\Webpage Posting\2025-0410\Program Year 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108173D-03EF-4230-95E1-ECF9CB89ADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6918CE54-75EF-46F3-A971-0B0B2DF38834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>BASED ON 2018/19-2022/23 MARKET YEAR AVERAGE (MYA) PRICES AND EFFECTIVE REFERENCE PRICES</t>
   </si>
   <si>
-    <t>January 10, 2025 1/</t>
+    <t>April 10, 2025 1/</t>
   </si>
   <si>
     <t>Commodity</t>
@@ -1000,7 +1000,7 @@
         <v>8.83</v>
       </c>
       <c r="K9" s="6">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
         <v>3.38</v>
       </c>
       <c r="N9" s="6">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         <v>7.4</v>
       </c>
       <c r="K10" s="6">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>20</v>
@@ -1056,7 +1056,7 @@
         <v>2.5</v>
       </c>
       <c r="N10" s="6">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>20</v>
@@ -1094,7 +1094,7 @@
         <v>4.57</v>
       </c>
       <c r="K11" s="6">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>20</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="6">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>20</v>
@@ -1141,7 +1141,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="K12" s="13">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
         <v>0.17749999999999999</v>
       </c>
       <c r="N12" s="13">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>20</v>
@@ -1188,7 +1188,7 @@
         <v>6.54</v>
       </c>
       <c r="K13" s="6">
-        <v>4.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N13" s="6">
-        <v>4.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>20</v>
@@ -1235,7 +1235,7 @@
         <v>5.94</v>
       </c>
       <c r="K14" s="6">
-        <v>4.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>20</v>
@@ -1244,7 +1244,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N14" s="6">
-        <v>4.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>20</v>
@@ -1282,7 +1282,7 @@
         <v>14.2</v>
       </c>
       <c r="K15" s="6">
-        <v>10.199999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>20</v>
@@ -1291,7 +1291,7 @@
         <v>6.2</v>
       </c>
       <c r="N15" s="6">
-        <v>10.199999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>20</v>
@@ -1376,7 +1376,7 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K17" s="13">
-        <v>0.34499999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>20</v>
@@ -1385,7 +1385,7 @@
         <v>0.13</v>
       </c>
       <c r="N17" s="13">
-        <v>0.34499999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>20</v>
@@ -1423,7 +1423,7 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="K18" s="13">
-        <v>0.20300000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>20</v>
@@ -1432,7 +1432,7 @@
         <v>0.1009</v>
       </c>
       <c r="N18" s="13">
-        <v>0.20300000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>20</v>
@@ -1564,7 +1564,7 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="K21" s="13">
-        <v>0.19850000000000001</v>
+        <v>0.2155</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>20</v>
@@ -1573,7 +1573,7 @@
         <v>0.1009</v>
       </c>
       <c r="N21" s="13">
-        <v>0.19850000000000001</v>
+        <v>0.2155</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>20</v>
@@ -1611,7 +1611,7 @@
         <v>17.5</v>
       </c>
       <c r="K22" s="13">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>20</v>
@@ -1620,7 +1620,7 @@
         <v>5.6504000000000003</v>
       </c>
       <c r="N22" s="13">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>20</v>
@@ -1658,7 +1658,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="K23" s="13">
-        <v>0.47899999999999998</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>20</v>
@@ -1667,7 +1667,7 @@
         <v>0.1009</v>
       </c>
       <c r="N23" s="13">
-        <v>0.47899999999999998</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>20</v>
@@ -1705,7 +1705,7 @@
         <v>0.216</v>
       </c>
       <c r="K24" s="13">
-        <v>0.159</v>
+        <v>0.2</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>20</v>
@@ -1714,7 +1714,7 @@
         <v>0.1009</v>
       </c>
       <c r="N24" s="13">
-        <v>0.159</v>
+        <v>0.2</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>20</v>
@@ -1752,7 +1752,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="K25" s="13">
-        <v>0.29899999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>20</v>
@@ -1761,7 +1761,7 @@
         <v>0.1009</v>
       </c>
       <c r="N25" s="13">
-        <v>0.29899999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>20</v>
@@ -1799,7 +1799,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="K26" s="13">
-        <v>0.191</v>
+        <v>0.24</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>20</v>
@@ -1808,7 +1808,7 @@
         <v>0.1009</v>
       </c>
       <c r="N26" s="13">
-        <v>0.191</v>
+        <v>0.24</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>20</v>
@@ -1893,7 +1893,7 @@
         <v>0.45329999999999998</v>
       </c>
       <c r="K28" s="13">
-        <v>0.34329999999999999</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>20</v>
@@ -1902,7 +1902,7 @@
         <v>0.25</v>
       </c>
       <c r="N28" s="13">
-        <v>0.34329999999999999</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>20</v>
@@ -1940,7 +1940,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="K29" s="13">
-        <v>0.14299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>20</v>
@@ -1949,7 +1949,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N29" s="13">
-        <v>0.14299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>20</v>
@@ -1987,7 +1987,7 @@
         <v>0.182</v>
       </c>
       <c r="K30" s="13">
-        <v>0.14799999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>20</v>
@@ -1996,7 +1996,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N30" s="13">
-        <v>0.14799999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>20</v>
@@ -2034,7 +2034,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="K31" s="19">
-        <v>0.22</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="L31" s="21" t="s">
         <v>20</v>
@@ -2043,7 +2043,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N31" s="19">
-        <v>0.22</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="O31" s="21" t="s">
         <v>20</v>
